--- a/Database_G2_Forum_update3.xlsx
+++ b/Database_G2_Forum_update3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Desktop\G2ForumWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FE475-D08D-4ABF-A122-04E7300C69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11099F25-4A1F-4B77-B91B-53F0DBE78497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43A04236-E20D-42A3-B2D5-0D9A3173A71B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>G2ForumWeb Database</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>respondingToCommmentId</t>
   </si>
 </sst>
 </file>
@@ -1601,14 +1604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170864F1-DF9A-4B54-B6E4-0541A319C080}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1628,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1649,7 +1653,7 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1676,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1690,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
@@ -1713,15 +1717,9 @@
         <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1736,10 +1734,10 @@
         <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1764,10 +1762,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1777,11 +1775,11 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>73</v>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1791,9 +1789,6 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1802,10 +1797,12 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1814,37 +1811,26 @@
       <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
@@ -1857,11 +1843,14 @@
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,25 +1860,28 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C19" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1899,10 +1891,25 @@
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Database_G2_Forum_update3.xlsx
+++ b/Database_G2_Forum_update3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Desktop\G2ForumWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11099F25-4A1F-4B77-B91B-53F0DBE78497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F744A47-D0AA-469E-B3A8-35429AC9266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43A04236-E20D-42A3-B2D5-0D9A3173A71B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="125">
   <si>
     <t>G2ForumWeb Database</t>
   </si>
@@ -335,13 +335,82 @@
   </si>
   <si>
     <t>respondingToCommmentId</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>Search topic</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>user.jsp</t>
+  </si>
+  <si>
+    <t>mod.jsp</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Search user</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>CreatePost.jsp</t>
+  </si>
+  <si>
+    <t>Post / Reset</t>
+  </si>
+  <si>
+    <t>topic pick</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Create comment</t>
+  </si>
+  <si>
+    <t>ViewPost.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +442,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +462,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -436,13 +518,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -470,8 +709,79 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
@@ -1602,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170864F1-DF9A-4B54-B6E4-0541A319C080}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,297 +1928,291 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="8" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1919,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815BE3A-78E3-4CEB-AA9A-E0F14DBF006D}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,39 +2235,974 @@
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="20"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="23"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G7" s="24"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="M7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="S7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="30"/>
+      <c r="V7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="W7" s="30"/>
+      <c r="Y7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC7" s="30"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
+      <c r="G11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="18"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="18"/>
+    </row>
+    <row r="17" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="23"/>
+    </row>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="18"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="18"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="18"/>
+    </row>
+    <row r="22" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="20"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="20"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="20"/>
+    </row>
+    <row r="23" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="23"/>
+    </row>
+    <row r="24" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G25" s="16"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="34"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="34"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="34"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="34"/>
+    </row>
+    <row r="26" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G26" s="42"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="39"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="39"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" s="47"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="39"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="39"/>
+    </row>
+    <row r="27" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="20"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="20"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="43"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="20"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="20"/>
+    </row>
+    <row r="28" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="20"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="20"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="43"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="20"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="20"/>
+    </row>
+    <row r="29" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G29" s="42"/>
+      <c r="H29" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="20"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="20"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="20"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="20"/>
+    </row>
+    <row r="30" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="20"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="20"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="20"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="20"/>
+    </row>
+    <row r="31" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G31" s="42"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="20"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="20"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="43"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="20"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="20"/>
+    </row>
+    <row r="32" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G32" s="32"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="20"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="20"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="U32" s="45"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="20"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="20"/>
+    </row>
+    <row r="33" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="23"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="23"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="23"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="23"/>
+    </row>
+    <row r="34" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="18"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="18"/>
+    </row>
+    <row r="35" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="23"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="23"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Database_G2_Forum_update3.xlsx
+++ b/Database_G2_Forum_update3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Desktop\G2ForumWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F744A47-D0AA-469E-B3A8-35429AC9266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6626D7B-914D-4AB0-A44F-BA511DAA8A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43A04236-E20D-42A3-B2D5-0D9A3173A71B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="148">
   <si>
     <t>G2ForumWeb Database</t>
   </si>
@@ -322,9 +322,6 @@
     <t>topic_id**</t>
   </si>
   <si>
-    <t>(1 = up,- 1 = down)</t>
-  </si>
-  <si>
     <t>topicTbl</t>
   </si>
   <si>
@@ -404,6 +401,78 @@
   </si>
   <si>
     <t>ViewPost.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  =comment_id</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>comment Of comment</t>
+  </si>
+  <si>
+    <t>cateloryID</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>(1 = up, - 1 = down)</t>
+  </si>
+  <si>
+    <t>(3) &gt; modViewVote.jsp</t>
+  </si>
+  <si>
+    <t>vote_type sum</t>
+  </si>
+  <si>
+    <t>isApprove = mod_id != null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 1 </t>
+  </si>
+  <si>
+    <t>mod_id - null - int</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Create Vote = Post</t>
+  </si>
+  <si>
+    <t>Vote - vote func DAO</t>
+  </si>
+  <si>
+    <t>Post -&gt; Vote</t>
+  </si>
+  <si>
+    <t>VoteTbl = post_id</t>
+  </si>
+  <si>
+    <t>Mod -&gt; View Vote -&gt; approve by isHidden</t>
+  </si>
+  <si>
+    <t>ApproveAble -&gt; vote_type sum = 3;</t>
+  </si>
+  <si>
+    <t>func vote_type Sum all votetype by post_id</t>
+  </si>
+  <si>
+    <t>user &gt;- vote</t>
+  </si>
+  <si>
+    <t>vote id -&gt; post_id</t>
+  </si>
+  <si>
+    <t>checkDub vote :</t>
+  </si>
+  <si>
+    <t>vote id -&gt; post_id AND create_user_id ==  get user.id</t>
+  </si>
+  <si>
+    <t>voteSum</t>
   </si>
 </sst>
 </file>
@@ -681,7 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -728,6 +797,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,19 +821,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -761,7 +839,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
@@ -770,15 +848,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -1912,20 +1982,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170864F1-DF9A-4B54-B6E4-0541A319C080}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1933,6 +2002,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1946,11 +2035,14 @@
         <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
@@ -1964,16 +2056,19 @@
         <v>2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2017,6 +2112,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2034,6 +2132,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2065,6 +2166,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
@@ -2079,6 +2183,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2093,14 +2200,23 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>71</v>
       </c>
@@ -2114,7 +2230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
@@ -2122,7 +2238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2132,7 +2248,10 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2145,8 +2264,20 @@
       <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2294,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2179,8 +2313,17 @@
       <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
@@ -2194,9 +2337,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -2205,15 +2354,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E25" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2381,7 @@
   <dimension ref="A2:AC35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,13 +2401,13 @@
         <v>59</v>
       </c>
       <c r="O2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" t="s">
         <v>110</v>
       </c>
-      <c r="U2" t="s">
-        <v>111</v>
-      </c>
       <c r="AA2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -2327,97 +2482,97 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="G6" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G7" s="24"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="30"/>
+      <c r="J7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="40"/>
       <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="40"/>
       <c r="S7" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="W7" s="40"/>
       <c r="Y7" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC7" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC7" s="40"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2426,306 +2581,306 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="31"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
       <c r="AC8" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
       <c r="W9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
       <c r="AC9" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="40"/>
       <c r="W10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
+        <v>106</v>
+      </c>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
       <c r="AC10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="30"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="40"/>
       <c r="W11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
       <c r="AC11" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
       <c r="Q12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y15" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="31"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="41"/>
       <c r="AC15" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -2774,13 +2929,13 @@
     </row>
     <row r="20" spans="7:29" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="7:29" x14ac:dyDescent="0.3">
@@ -2851,264 +3006,264 @@
     </row>
     <row r="24" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G25" s="16"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="34"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
       <c r="M25" s="16"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="34"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="S25" s="16"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="34"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="43"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="34"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="43"/>
     </row>
     <row r="26" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G26" s="42"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="39"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="39"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="U26" s="47"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="39"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="39"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="28"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="28"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="28"/>
     </row>
     <row r="27" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G27" s="42"/>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="20"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="20"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="30"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="20"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="20"/>
+    </row>
+    <row r="28" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="20"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="20"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="20"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U27" s="43"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="20"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42" t="s">
+      <c r="O28" s="30"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="20"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="20"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="20"/>
-    </row>
-    <row r="28" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G28" s="42"/>
-      <c r="H28" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="20"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="20"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="U28" s="43"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="20"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="49"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="36"/>
       <c r="AC28" s="20"/>
     </row>
     <row r="29" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G29" s="42"/>
-      <c r="H29" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="49"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="20"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="49"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="20"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="49"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="36"/>
       <c r="W29" s="20"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="49"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="36"/>
       <c r="AC29" s="20"/>
     </row>
     <row r="30" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="49"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="20"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="49"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="20"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="49"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="36"/>
       <c r="W30" s="20"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="49"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="36"/>
       <c r="AC30" s="20"/>
     </row>
     <row r="31" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G31" s="42"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="50"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="20"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="50"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="37"/>
       <c r="Q31" s="20"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42" t="s">
+      <c r="S31" s="29"/>
+      <c r="T31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="U31" s="43"/>
-      <c r="V31" s="49"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="36"/>
       <c r="W31" s="20"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="50"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="37"/>
       <c r="AC31" s="20"/>
     </row>
     <row r="32" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G32" s="32"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="20"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
       <c r="Q32" s="20"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="U32" s="45"/>
-      <c r="V32" s="50"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="U32" s="32"/>
+      <c r="V32" s="37"/>
       <c r="W32" s="20"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
       <c r="AC32" s="20"/>
     </row>
     <row r="33" spans="7:29" x14ac:dyDescent="0.3">
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="23"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
       <c r="Q33" s="23"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
       <c r="W33" s="23"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
       <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="7:29" x14ac:dyDescent="0.3">
@@ -3157,17 +3312,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="J25:K25"/>
@@ -3183,6 +3337,7 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="S10:V10"/>
     <mergeCell ref="S11:V11"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="G8:J8"/>
